--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325EA0F-2B25-4BE4-8D0E-94B2145DD7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD6F61-FE29-4DC8-AB34-417D396456D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD6F61-FE29-4DC8-AB34-417D396456D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D9C26-7B69-486C-A03E-C79F7471EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D9C26-7B69-486C-A03E-C79F7471EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811D762-1C45-4A0E-96C2-5B39CCEA5410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811D762-1C45-4A0E-96C2-5B39CCEA5410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848179B9-719A-41B5-92D7-AA5D732C849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848179B9-719A-41B5-92D7-AA5D732C849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D968AC-AA53-4EC1-AA62-A7C90A9F5030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -593,6 +593,193 @@
         <family val="2"/>
       </rPr>
       <t>, It should display the Company,Status,Outlets, Actions and top right Change password button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;QOB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>View Manage Payment Settings  page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;QOB&gt; Expense category mapping</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense cateory, Category dropdown and Tax code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;Microsoft Business central</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new Microsot Business Central if we click on Configure Unlike Xero or QBO, there is no 'Connect' button, only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Configure'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               1.Clicking 'Configure' leads the user to the mapping page, which consists of two tabs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Outlets' and 'Suppliers'</t>
+    </r>
+  </si>
+  <si>
+    <t>There is 2 tabs Outlets and Suppliers                                           1.Outlets : Zeemart and Business central dropdown select and Sync now                                                                                                               2.Suppliers : Zeemart and Business central dropdown select and Sync now                                                                                   If not selecting the option its throughing an error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below it shows Cancel and Save, After Clicking the Save and toastr will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Integration settings saved'</t>
     </r>
   </si>
 </sst>
@@ -747,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -782,6 +969,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1064,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1268,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -1395,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>41</v>
@@ -1405,6 +1598,74 @@
       </c>
       <c r="G14" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D968AC-AA53-4EC1-AA62-A7C90A9F5030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1FD06-8FB7-4FD5-98F0-0EDA5B4D3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>SL. No</t>
   </si>
@@ -781,6 +781,12 @@
       </rPr>
       <t>'Integration settings saved'</t>
     </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <t>Once click the Save ,Toastr should be Integration settings saved and is Cancel ,its redirects to Integration screen</t>
   </si>
 </sst>
 </file>
@@ -934,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1604,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1616,9 +1619,15 @@
       <c r="E15" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1633,9 +1642,15 @@
       <c r="E16" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1650,9 +1665,15 @@
       <c r="E17" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1666,6 +1687,12 @@
       </c>
       <c r="E18" s="12" t="s">
         <v>51</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
+++ b/Buyer hub/Username Account details/Manual testcases/Final Username testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Username Account details\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1FD06-8FB7-4FD5-98F0-0EDA5B4D3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CCA0E-1272-4C23-8D52-2D2AE2FD830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,6 +558,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Linked Companies"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, It should display the Company,Status,Outlets, Actions and top right Change password button</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Click on the </t>
     </r>
     <r>
@@ -568,32 +592,32 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Linked Companies"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, It should display the Company,Status,Outlets, Actions and top right Change password button</t>
-    </r>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;QOB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>View Manage Payment Settings  page</t>
   </si>
   <si>
     <r>
@@ -617,7 +641,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-&gt;QOB</t>
+      <t>-&gt;QOB&gt; Expense category mapping</t>
     </r>
     <r>
       <rPr>
@@ -632,7 +656,28 @@
     </r>
   </si>
   <si>
-    <t>View Manage Payment Settings  page</t>
+    <r>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense cateory, Category dropdown and Tax code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
   </si>
   <si>
     <r>
@@ -656,7 +701,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-&gt;QOB&gt; Expense category mapping</t>
+      <t>-&gt;Microsoft Business central</t>
     </r>
     <r>
       <rPr>
@@ -672,27 +717,61 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">It should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expense cateory, Category dropdown and Tax code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
-    </r>
+      <t xml:space="preserve">Here new Microsot Business Central if we click on Configure Unlike Xero or QBO, there is no 'Connect' button, only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Configure'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               1.Clicking 'Configure' leads the user to the mapping page, which consists of two tabs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Outlets' and 'Suppliers'</t>
+    </r>
+  </si>
+  <si>
+    <t>There is 2 tabs Outlets and Suppliers                                           1.Outlets : Zeemart and Business central dropdown select and Sync now                                                                                                               2.Suppliers : Zeemart and Business central dropdown select and Sync now                                                                                   If not selecting the option its throughing an error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below it shows Cancel and Save, After Clicking the Save and toastr will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Integration settings saved'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <t>Once click the Save ,Toastr should be Integration settings saved and is Cancel ,its redirects to Integration screen</t>
   </si>
   <si>
     <r>
@@ -706,87 +785,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions -&gt;Manage integration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-&gt;Microsoft Business central</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here new Microsot Business Central if we click on Configure Unlike Xero or QBO, there is no 'Connect' button, only </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Configure'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                               1.Clicking 'Configure' leads the user to the mapping page, which consists of two tabs, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Outlets' and 'Suppliers'</t>
-    </r>
-  </si>
-  <si>
-    <t>There is 2 tabs Outlets and Suppliers                                           1.Outlets : Zeemart and Business central dropdown select and Sync now                                                                                                               2.Suppliers : Zeemart and Business central dropdown select and Sync now                                                                                   If not selecting the option its throughing an error</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Below it shows Cancel and Save, After Clicking the Save and toastr will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Integration settings saved'</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed as expected</t>
-  </si>
-  <si>
-    <t>Once click the Save ,Toastr should be Integration settings saved and is Cancel ,its redirects to Integration screen</t>
+      <t>"Actions-&gt; Manage details-&gt;Reports"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1476,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>30</v>
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>41</v>
@@ -1611,16 +1611,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1634,16 +1634,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1657,16 +1657,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1680,16 +1680,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
